--- a/sch_pn.xlsx
+++ b/sch_pn.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B3D53B-FC2D-414D-B6E1-A08A12063C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2F146B-1161-45B0-8655-D4A6CCBB2032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2085" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="2595" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="50">
   <si>
     <t>-</t>
   </si>
@@ -95,21 +95,12 @@
     <t>9Б</t>
   </si>
   <si>
-    <t>9В</t>
-  </si>
-  <si>
     <t>10Б</t>
   </si>
   <si>
     <t>11А</t>
   </si>
   <si>
-    <t>7А</t>
-  </si>
-  <si>
-    <t>8А</t>
-  </si>
-  <si>
     <t>8Б</t>
   </si>
   <si>
@@ -161,22 +152,50 @@
     <t>химия</t>
   </si>
   <si>
-    <t>10А</t>
-  </si>
-  <si>
     <t>Инф./англ.</t>
+  </si>
+  <si>
+    <t>8Г</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,7 +254,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -296,15 +315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -353,37 +363,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,68 +712,68 @@
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="5" t="s">
+      <c r="P1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -791,46 +801,46 @@
       <c r="H2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11" t="s">
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
@@ -838,67 +848,67 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="9" t="s">
+      <c r="L3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -906,135 +916,135 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="V4" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="8" t="s">
+      <c r="T5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1042,67 +1052,67 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="J6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="O6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="8" t="s">
+      <c r="P6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1110,136 +1120,136 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" s="8" t="s">
+      <c r="S7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="T7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>43</v>
+      <c r="U7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="L8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" s="8" t="s">
+      <c r="U8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V8" s="8" t="s">
-        <v>48</v>
+      <c r="V8" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1255,16 +1265,16 @@
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -1279,35 +1289,35 @@
       <c r="L9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="R9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="S9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="8" t="s">
+      <c r="U9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="8" t="s">
-        <v>37</v>
+      <c r="V9" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/sch_pn.xlsx
+++ b/sch_pn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curvh\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curvh\Documents\bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EE8279-A5BE-4365-B287-882E34FD71C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39248542-077F-4876-AA23-AC842248EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="3195" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>6Г</t>
   </si>
   <si>
-    <t>7A</t>
-  </si>
-  <si>
     <t>7Б</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>технология</t>
   </si>
   <si>
-    <t>8/1</t>
-  </si>
-  <si>
     <t>геометрия</t>
   </si>
   <si>
@@ -162,9 +156,6 @@
     <t>2.7</t>
   </si>
   <si>
-    <t>2.8</t>
-  </si>
-  <si>
     <t>английский</t>
   </si>
   <si>
@@ -277,19 +268,36 @@
   </si>
   <si>
     <t>10A</t>
+  </si>
+  <si>
+    <t>7А</t>
+  </si>
+  <si>
+    <t>8/0</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -498,58 +506,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -902,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:BL1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,131 +986,131 @@
       <c r="V1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="AA1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AD1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AE1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AG1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AH1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AK1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AL1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AM1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AN1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AO1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AP1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AR1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AS1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AT1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AU1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AV1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AW1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AX1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AY1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="BB1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="BC1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF1" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BH1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BI1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BE1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="BH1" s="17" t="s">
+      <c r="BK1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BI1" s="17" t="s">
+      <c r="BL1" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK1" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="BL1" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,82 +1118,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="BA2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE2" t="s">
         <v>76</v>
       </c>
-      <c r="AO2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>79</v>
-      </c>
       <c r="BG2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BH2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BK2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -1190,83 +1201,83 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="AM3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AR3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AS3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="BD3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BE3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BK3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BL3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,83 +1285,83 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AI4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AL4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AO4" s="4"/>
       <c r="AR4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV4" t="s">
         <v>72</v>
       </c>
-      <c r="AU4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>75</v>
-      </c>
       <c r="AX4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AY4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BB4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BD4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BE4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BH4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BK4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -1358,77 +1369,77 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>59</v>
-      </c>
       <c r="AL5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AO5" s="4"/>
       <c r="AR5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AS5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AV5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AX5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AY5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BD5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BG5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BE5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BH5" t="s">
+      <c r="BK5" t="s">
         <v>74</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,80 +1447,80 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AO6" s="4"/>
       <c r="AR6" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AS6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AT6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AY6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BE6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="BG6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BH6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BJ6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="BK6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -1517,80 +1528,80 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="s">
         <v>67</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>70</v>
       </c>
       <c r="AO7" s="4"/>
       <c r="AR7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AU7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="BD7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="BH7" t="s">
         <v>77</v>
       </c>
-      <c r="AX7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY7" t="s">
-        <v>65</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>76</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>80</v>
-      </c>
       <c r="BJ7" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BK7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BL7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="30" x14ac:dyDescent="0.25">
@@ -1598,448 +1609,448 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI8" s="7"/>
       <c r="AL8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AR8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AS8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AU8" s="4"/>
       <c r="AX8" s="8"/>
       <c r="BA8" s="4"/>
       <c r="BD8" s="4"/>
       <c r="BG8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BH8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BK8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD9" t="s">
         <v>54</v>
       </c>
-      <c r="O9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" t="s">
-        <v>54</v>
-      </c>
-      <c r="U9" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="X9" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>57</v>
-      </c>
       <c r="AF9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AG9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AI9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL9" s="10"/>
       <c r="AO9" s="10"/>
       <c r="AR9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BG9" s="4"/>
       <c r="BJ9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="K10" s="3"/>
       <c r="N10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="T10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AG10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="T11" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
+        <v>68</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X11" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD11" t="s">
         <v>71</v>
       </c>
-      <c r="W11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD11" t="s">
+      <c r="AF11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG11" t="s">
         <v>74</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="T12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="W12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="X12" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="AG12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y13" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA13" t="s">
         <v>57</v>
       </c>
-      <c r="Z13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>60</v>
-      </c>
       <c r="AC13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14" s="4"/>
       <c r="N14" s="4"/>
       <c r="Q14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X14" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD14" t="s">
         <v>60</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>63</v>
-      </c>
       <c r="AF14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K15" s="4"/>
       <c r="N15" s="4"/>
       <c r="Q15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="T15" s="4"/>
       <c r="W15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG15" t="s">
         <v>60</v>
-      </c>
-      <c r="AC15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">

--- a/sch_pn.xlsx
+++ b/sch_pn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curvh\Documents\bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\curvh\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39248542-077F-4876-AA23-AC842248EEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3A8D89-190F-497B-8F6C-E03CC61B9F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="2595" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sch" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="86">
   <si>
     <t>Урок</t>
   </si>
@@ -54,6 +54,9 @@
     <t>6Г</t>
   </si>
   <si>
+    <t>7A</t>
+  </si>
+  <si>
     <t>7Б</t>
   </si>
   <si>
@@ -168,6 +171,9 @@
     <t>география</t>
   </si>
   <si>
+    <t>литературв</t>
+  </si>
+  <si>
     <t>история</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t>русский род</t>
   </si>
   <si>
+    <t>химия</t>
+  </si>
+  <si>
     <t>общество</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>Горявина</t>
   </si>
   <si>
+    <t>Ким</t>
+  </si>
+  <si>
     <t>Скрыльникова</t>
   </si>
   <si>
@@ -268,9 +280,6 @@
   </si>
   <si>
     <t>10A</t>
-  </si>
-  <si>
-    <t>7А</t>
   </si>
   <si>
     <t>8/0</t>
@@ -283,29 +292,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -479,26 +472,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,61 +499,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,1151 +903,1265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" t="s">
         <v>80</v>
       </c>
-      <c r="X1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="AR1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AT1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="AU1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW1" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC1" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="BE1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF1" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="BH1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="BI1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BK1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="BL1" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:64" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="BG2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BA2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="BH2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>51</v>
+        <v>75</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="BK2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AV3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO3" s="4"/>
-      <c r="AR3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>77</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ3" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="BK3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="BL3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="BE4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH4" t="s">
         <v>78</v>
       </c>
-      <c r="AK4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO4" s="4"/>
-      <c r="AR4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>61</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>28</v>
+      <c r="BJ4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="BK4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO5" s="4"/>
-      <c r="AR5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="BB5" t="s">
-        <v>62</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="BE5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BG5" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="BH5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BJ5" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="BK5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AP6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="4"/>
-      <c r="AR6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="AS6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AT6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>24</v>
+        <v>69</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AV6" t="s">
         <v>77</v>
       </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AX6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AY6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="BE6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ6" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="BK6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AM7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AX7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="AM7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO7" s="4"/>
-      <c r="AR7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>74</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="AY7" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>32</v>
+        <v>66</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="BB7" t="s">
-        <v>73</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>28</v>
+        <v>77</v>
+      </c>
+      <c r="BD7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="BE7" t="s">
-        <v>71</v>
-      </c>
-      <c r="BG7" s="4" t="s">
-        <v>24</v>
+        <v>75</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="BH7" t="s">
-        <v>77</v>
-      </c>
-      <c r="BJ7" s="5" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="BJ7" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="BK7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="BL7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI8" s="9"/>
+      <c r="AL8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI8" s="7"/>
-      <c r="AL8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AR8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU8" s="4"/>
-      <c r="AX8" s="8"/>
-      <c r="BA8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BG8" s="4" t="s">
-        <v>46</v>
+      <c r="BB8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="BH8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ8" s="4" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="BJ8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="BK8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:64" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
+      <c r="A9" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="X9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD9" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD9" t="s">
+      <c r="AF9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AF9" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="AG9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AR9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AU9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AX9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG9" s="4"/>
-      <c r="BJ9" s="10" t="s">
-        <v>25</v>
+        <v>76</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AR9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AU9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BD9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG9" s="6"/>
+      <c r="BJ9" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="N10" s="3" t="s">
-        <v>49</v>
+      <c r="A10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>26</v>
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="U10" t="s">
-        <v>67</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="AA10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC10" s="4" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="AD10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF10" s="4" t="s">
-        <v>44</v>
+        <v>75</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="AG10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AH10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>71</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" t="s">
+        <v>65</v>
+      </c>
+      <c r="W11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="T11" s="4" t="s">
+      <c r="X11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U11" t="s">
-        <v>68</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="X11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
         <v>75</v>
       </c>
-      <c r="AC11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>23</v>
+      <c r="AF11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="AG11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="L12" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>30</v>
       </c>
       <c r="O12" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="4"/>
-      <c r="T12" s="4" t="s">
-        <v>49</v>
+      <c r="Q12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
         <v>60</v>
       </c>
-      <c r="W12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="X12" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z12" s="4" t="s">
-        <v>23</v>
+      <c r="Z12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="AA12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC12" s="4" t="s">
-        <v>27</v>
+        <v>78</v>
+      </c>
+      <c r="AC12" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="AD12" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF12" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="AG12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>30</v>
+      <c r="A13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="L13" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="4"/>
-      <c r="Q13" s="4" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="R13" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="X13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="X13" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC13" s="4" t="s">
-        <v>23</v>
+      <c r="AC13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="AD13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="AF13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="AG13" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="Q14" s="4" t="s">
-        <v>28</v>
+      <c r="A14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" t="s">
         <v>67</v>
       </c>
-      <c r="T14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" t="s">
-        <v>63</v>
-      </c>
-      <c r="W14" s="4" t="s">
-        <v>31</v>
+      <c r="W14" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="X14" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB14" t="s">
         <v>57</v>
       </c>
-      <c r="Z14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC14" s="4" t="s">
-        <v>49</v>
+      <c r="AC14" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="AD14" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF14" s="4" t="s">
-        <v>28</v>
+        <v>64</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="AG14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="Q15" s="4" t="s">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>68</v>
+      </c>
+      <c r="T15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R15" t="s">
-        <v>63</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="W15" s="7" t="s">
-        <v>23</v>
+      <c r="U15" t="s">
+        <v>72</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="X15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>31</v>
+        <v>78</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="AA15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD15" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF15" s="4" t="s">
-        <v>49</v>
+      <c r="AF15" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="AG15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="W16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>25</v>
+      <c r="A16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF16" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="K17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="W17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE17" s="10" t="s">
-        <v>25</v>
+      <c r="A17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
